--- a/announce_hindi.xlsx
+++ b/announce_hindi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Railway Announcement System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719F6B8A-3544-4665-BE7E-66E2F0F00B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019E1E57-246F-4BF1-A7A5-2374736C4D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
